--- a/data/trans_dic/P19C06-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,51</t>
+          <t>0,51; 3,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,07</t>
+          <t>0,33; 3,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,57</t>
+          <t>0,71; 3,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,74</t>
+          <t>0,2; 1,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,39</t>
+          <t>0,7; 4,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,09</t>
+          <t>0,71; 4,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,91</t>
+          <t>0,66; 4,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,55</t>
+          <t>1,1; 3,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,86</t>
+          <t>0,88; 2,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,33</t>
+          <t>0,89; 3,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,96</t>
+          <t>0,86; 2,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,09</t>
+          <t>0,71; 2,16</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,42</t>
+          <t>0,32; 2,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,17</t>
+          <t>0,23; 2,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,0</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,85</t>
+          <t>0,21; 2,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,86</t>
+          <t>0,29; 2,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,89</t>
+          <t>1,0; 5,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,98</t>
+          <t>0,3; 3,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,44</t>
+          <t>0,16; 1,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,31</t>
+          <t>0,47; 2,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,66</t>
+          <t>0,73; 2,81</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,0</t>
+          <t>0,44; 1,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,35</t>
+          <t>0,3; 1,31</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1005,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,28</t>
+          <t>0,82; 3,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,44</t>
+          <t>0,97; 3,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,63</t>
+          <t>0,71; 3,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,77</t>
+          <t>0,11; 1,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,16</t>
+          <t>0,0; 4,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,29</t>
+          <t>0,88; 6,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,27 +1040,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,39</t>
+          <t>0,0; 1,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,87</t>
+          <t>0,82; 2,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,54</t>
+          <t>1,21; 3,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,61</t>
+          <t>0,38; 2,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,56</t>
+          <t>0,19; 1,52</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,05</t>
+          <t>0,59; 2,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,22</t>
+          <t>0,18; 1,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,62</t>
+          <t>0,3; 1,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,9</t>
+          <t>0,32; 2,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,05</t>
+          <t>0,37; 2,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,05</t>
+          <t>0,43; 1,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,78</t>
+          <t>0,84; 2,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,68</t>
+          <t>0,43; 1,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,82</t>
+          <t>0,67; 1,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,3</t>
+          <t>0,41; 1,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,87</t>
+          <t>0,67; 1,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,85</t>
+          <t>0,52; 1,88</t>
         </is>
       </c>
     </row>
@@ -1289,57 +1290,57 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,55</t>
+          <t>0,26; 2,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,52</t>
+          <t>0,74; 3,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 2,06</t>
+          <t>0,14; 1,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,62</t>
+          <t>0,44; 2,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,47</t>
+          <t>0,61; 2,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,35</t>
+          <t>0,53; 2,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,29</t>
+          <t>0,93; 2,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,72</t>
+          <t>0,28; 1,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,07</t>
+          <t>0,66; 1,99</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,52</t>
+          <t>0,77; 2,35</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,94</t>
+          <t>0,76; 1,9</t>
         </is>
       </c>
     </row>
@@ -1429,57 +1430,57 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>0,0; 2,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,96</t>
+          <t>0,0; 2,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,48</t>
+          <t>0,0; 3,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,74</t>
+          <t>0,4; 1,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,06</t>
+          <t>0,56; 2,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,41</t>
+          <t>0,69; 2,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,42</t>
+          <t>0,15; 1,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,34</t>
+          <t>0,31; 1,4</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,76</t>
+          <t>0,51; 1,69</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,15</t>
+          <t>0,69; 2,08</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,43</t>
+          <t>0,23; 1,35</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,54</t>
+          <t>0,72; 1,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,48</t>
+          <t>0,67; 1,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,78</t>
+          <t>0,78; 1,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,34</t>
+          <t>0,5; 1,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 1,67</t>
+          <t>0,74; 1,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,9</t>
+          <t>1,06; 1,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 1,87</t>
+          <t>0,93; 1,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,38</t>
+          <t>0,8; 1,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,42</t>
+          <t>0,86; 1,44</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 1,54</t>
+          <t>0,97; 1,54</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,62</t>
+          <t>0,98; 1,62</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,24</t>
+          <t>0,72; 1,22</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5426</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5649</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6327</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3157</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5914</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5849</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9253</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10620</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11563</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12175</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12409</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1987; 13244</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1295; 15099</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2761; 13779</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1004; 8638</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1879; 11140</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2100; 12463</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2092; 13314</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4831; 15526</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5735; 19484</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6100; 22843</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6029; 20753</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6673; 20250</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3800</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2789</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3288</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3860</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7208</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4079</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2304</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7660</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6059</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5592</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>953; 8971</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>901; 7906</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6092</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>950; 9236</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>975; 8897</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3144; 16163</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>999; 10298</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>606; 5584</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2966; 14444</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5122; 19592</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2847; 12583</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2476; 10795</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7338</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10239</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6893</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5179</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2048</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6049</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9386</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16288</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6893</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5712</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3519; 14661</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5176; 18151</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2866; 14416</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>743; 12574</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6916</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2111; 14470</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2057</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2096</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4694; 16372</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9354; 27657</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2077; 15016</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1528; 12543</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10372</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6669</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>9718</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5911</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>10695</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8928</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>16284</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>12399</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>17364</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>18645</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5133; 18223</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1705; 11353</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2637; 15760</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3228; 27188</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2183; 12772</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3004; 13698</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5712; 19073</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4159; 16811</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>9784; 26206</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>6867; 21342</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>10479; 28042</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>10169; 36713</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4095</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7780</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3154</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5699</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8407</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6427</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>12299</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5699</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>12501</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>14207</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>15453</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1966</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1055; 9486</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3148; 15568</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>615; 8678</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2007; 11415</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4052; 16037</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2954; 13796</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7562; 19370</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1958; 11388</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>7066; 21377</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7530; 23112</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>9494; 23818</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1049</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2274</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8274</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>10375</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>11230</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3594</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>8274</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>11423</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>13184</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5868</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1851</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5275</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6760</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8687</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3765; 16024</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>5181; 18769</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>5724; 19893</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1094; 9355</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>3599; 16225</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>5861; 19428</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>7379; 22169</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2233; 13238</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>26937</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>29005</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>31603</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>26770</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>30986</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>45167</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>38279</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>36910</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>57923</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>74172</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>69882</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>63680</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>17623; 37765</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>19395; 41953</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>20623; 46230</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>16506; 45221</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>20222; 43763</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>33400; 60552</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>26687; 52937</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>27865; 49252</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>44567; 74569</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>58566; 93404</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>53963; 89532</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>48873; 82984</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P19C06-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
